--- a/Data Files/Input Validation/47. overdueflag/Auto_OverdueFlag_C8.xlsx
+++ b/Data Files/Input Validation/47. overdueflag/Auto_OverdueFlag_C8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\47. overdueflag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D0498A-655E-412C-9E20-A163BD14DF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06830E8E-DDC2-417D-91AD-68E095EA56F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,9 +230,6 @@
     <t>หลักประกัน</t>
   </si>
   <si>
-    <t>[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
-  </si>
-  <si>
     <t>U0105556078229000</t>
   </si>
   <si>
@@ -251,7 +248,10 @@
     <t>las8jj5mk</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
+  </si>
+  <si>
+    <t>2024-02-01</t>
   </si>
 </sst>
 </file>
@@ -328,9 +328,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -368,7 +368,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -474,7 +474,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -616,7 +616,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,7 +628,7 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>17</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>71</v>
@@ -869,7 +869,7 @@
         <v>53</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>43</v>
@@ -916,7 +916,7 @@
         <v>63</v>
       </c>
       <c r="AM2" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3"/>
@@ -924,13 +924,13 @@
         <v>49</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
